--- a/data/teacher/Paulo R..xlsx
+++ b/data/teacher/Paulo R..xlsx
@@ -990,12 +990,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-1NB-Trat. Térmicos', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-1NB-Trat. Térmicos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-1NB-Trat. Térmicos', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-1NB-Trat. Térmicos']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
